--- a/software/TemperatureConversion.xlsx
+++ b/software/TemperatureConversion.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clayton\Documents\CSUN\ECE524\Labs\Lab4\sp23-e524-lab4-mem-CLA10LAW10\software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88592BB8-1271-4270-A2C6-42E735695C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBB7ADF-C9F6-428E-962E-86C151DB2E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +37,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
   <si>
     <t>C</t>
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>h20,'h22,'h24,'h26,'h28,'h29,'h2B,'h2D,'h2F,'h31,'h32,'h34,'h36,'h38,'h3A,'h3B,'h3D,'h3F,'h41,'h43,'h44,'h46,'h48,'h4A,'h4C,'h4D,'h4F,'h51,'h53,'h55,'h56,'h58,'h5A,'h5C,'h5E,'h5F,'h61,'h63,'h65,'h67,'h68,'h6A,'h6C,'h6E,'h70,'h71,'h73,'h75,'h77,'h79,'h7A,'h7C,'h7E,'h80,'h82,'h83,'h85,'h87,'h89,'h8B,'h8C,'h8E,'h90,'h92,'h94,'h95,'h97,'h99,'h9B,'h9D,'h9E,'hA0,'hA2,'hA4,'hA6,'hA7,'hA9,'hAB,'hAD,'hAF,'hB0,'hB2,'hB4,'hB6,'hB8,'hB9,'hBB,'hBD,'hBF,'hC1,'hC2,'hC4,'hC6,'hC8,'hCA,'hCB,'hCD,'hCF,'hD1,'hD3,'hD4,</t>
+  </si>
+  <si>
+    <t>Celcius to Farenheit</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'h0,8'h1,8'h2,8'h2,8'h3,8'h3,8'h4,8'h4,8'h5,8'h5,8'h6,8'h7,8'h7,8'h8,8'h8,8'h9,8'h9,8'hA,8'hA,8'hB,8'hC,8'hC,8'hD,8'hD,8'hE,8'hE,8'hF,8'hF,8'h10,8'h11,8'h11,8'h12,8'h12,8'h13,8'h13,8'h14,8'h14,8'h15,8'h16,8'h16,8'h17,8'h17,8'h18,8'h18,8'h19,8'h19,8'h1A,8'h1B,8'h1B,8'h1C,8'h1C,8'h1D,8'h1D,8'h1E,8'h1E,8'h1F,8'h20,8'h20,8'h21,8'h21,8'h22,8'h22,8'h23,8'h23,8'h24,8'h25,8'h25,8'h26,8'h26,8'h27,8'h27,8'h28,8'h28,8'h29,8'h2A,8'h2A,8'h2B,8'h2B,8'h2C,8'h2C,8'h2D,8'h2D,8'h2E,8'h2F,8'h2F,8'h30,8'h30,8'h31,8'h31,8'h32,8'h32,8'h33,8'h34,8'h34,8'h35,8'h35,8'h36,8'h36,8'h37,8'h37,8'h38,8'h39,8'h39,8'h3A,8'h3A,8'h3B,8'h3B,8'h3C,8'h3C,8'h3D,8'h3E,8'h3E,8'h3F,8'h3F,8'h40,8'h40,8'h41,8'h41,8'h42,8'h43,8'h43,8'h44,8'h44,8'h45,8'h45,8'h46,8'h46,8'h47,8'h48,8'h48,8'h49,8'h49,8'h4A,8'h4A,8'h4B,8'h4B,8'h4C,8'h4D,8'h4D,8'h4E,8'h4E,8'h4F,8'h4F,8'h50,8'h50,8'h51,8'h52,8'h52,8'h53,8'h53,8'h54,8'h54,8'h55,8'h55,8'h56,8'h57,8'h57,8'h58,8'h58,8'h59,8'h59,8'h5A,8'h5A,8'h5B,8'h5C,8'h5C,8'h5D,8'h5D,8'h5E,8'h5E,8'h5F,8'h5F,8'h60,8'h61,8'h61,8'h62,8'h62,8'h63,8'h63,8'h64,8'h64,</t>
   </si>
 </sst>
 </file>
@@ -57,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,23 +381,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -383,8 +408,20 @@
         <f>CONVERT(A2,"C","F")</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>ROUNDUP(B2,0)</f>
+        <v>32</v>
+      </c>
+      <c r="D2" t="str">
+        <f>DEC2HEX(C2)</f>
+        <v>20</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("'h"&amp;D2 &amp; ",")</f>
+        <v>'h20,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2 + 1</f>
         <v>1</v>
@@ -393,995 +430,8066 @@
         <f t="shared" ref="B3:B66" si="0">CONVERT(A3,"C","F")</f>
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f>ROUNDUP(B3,0)</f>
+        <v>34</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="1">DEC2HEX(C3)</f>
+        <v>22</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="2">_xlfn.CONCAT("'h"&amp;D3 &amp; ",")</f>
+        <v>'h22,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="1">A3 + 1</f>
+        <f t="shared" ref="A4:A67" si="3">A3 + 1</f>
         <v>2</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <f>ROUNDUP(B4,0)</f>
+        <v>36</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>'h24,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
         <v>37.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <f>ROUNDUP(B5,0)</f>
+        <v>38</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>'h26,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f t="shared" ref="C6:C69" si="4">ROUNDUP(B6,0)</f>
+        <v>40</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>'h28,</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(E2:E102)</f>
+        <v>'h20,'h22,'h24,'h26,'h28,'h29,'h2B,'h2D,'h2F,'h31,'h32,'h34,'h36,'h38,'h3A,'h3B,'h3D,'h3F,'h41,'h43,'h44,'h46,'h48,'h4A,'h4C,'h4D,'h4F,'h51,'h53,'h55,'h56,'h58,'h5A,'h5C,'h5E,'h5F,'h61,'h63,'h65,'h67,'h68,'h6A,'h6C,'h6E,'h70,'h71,'h73,'h75,'h77,'h79,'h7A,'h7C,'h7E,'h80,'h82,'h83,'h85,'h87,'h89,'h8B,'h8C,'h8E,'h90,'h92,'h94,'h95,'h97,'h99,'h9B,'h9D,'h9E,'hA0,'hA2,'hA4,'hA6,'hA7,'hA9,'hAB,'hAD,'hAF,'hB0,'hB2,'hB4,'hB6,'hB8,'hB9,'hBB,'hBD,'hBF,'hC1,'hC2,'hC4,'hC6,'hC8,'hCA,'hCB,'hCD,'hCF,'hD1,'hD3,'hD4,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>'h29,</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>42.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>2B</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>'h2B,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>44.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>2D</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>'h2D,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>46.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>2F</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>'h2F,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
         <v>48.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>'h31,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>'h32,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
         <v>51.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>'h34,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>53.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>'h36,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
         <v>55.400000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>'h38,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>3A</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>'h3A,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>3B</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>'h3B,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>3D</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>'h3D,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
         <v>62.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>3F</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>'h3F,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>'h41,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
         <v>66.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>'h43,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>'h44,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
         <v>69.800000000000011</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>'h46,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
         <v>71.599999999999994</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>'h48,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
         <v>73.400000000000006</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>4A</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>'h4A,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
         <v>75.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>4C</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>'h4C,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>4D</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>'h4D,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
         <v>78.800000000000011</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>4F</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>'h4F,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>'h51,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
         <v>82.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>'h53,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
         <v>84.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>'h55,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>'h56,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
         <v>87.800000000000011</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>'h58,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
         <v>89.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>5A</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>'h5A,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
         <v>91.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>5C</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>'h5C,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
         <v>93.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>5E</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>'h5E,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>5F</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>'h5F,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
         <v>96.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v>'h61,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
         <v>98.600000000000009</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>'h63,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
         <v>100.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>'h65,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
         <v>102.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>'h67,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>'h68,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
         <v>105.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>6A</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>'h6A,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
         <v>107.60000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>6C</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v>'h6C,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
         <v>109.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>6E</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v>'h6E,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
         <v>111.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v>'h70,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v>'h71,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
         <v>114.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v>'h73,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
         <v>116.60000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v>'h75,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
         <v>118.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v>'h77,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
         <v>120.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v>'h79,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>7A</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v>'h7A,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
         <v>123.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>7C</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="2"/>
+        <v>'h7C,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
         <v>125.60000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>7E</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="2"/>
+        <v>'h7E,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
         <v>127.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="2"/>
+        <v>'h80,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
         <v>129.19999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="2"/>
+        <v>'h82,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="2"/>
+        <v>'h83,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
         <v>132.80000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="2"/>
+        <v>'h85,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
         <v>134.60000000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="2"/>
+        <v>'h87,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
         <v>136.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="2"/>
+        <v>'h89,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
         <v>138.19999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>8B</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="2"/>
+        <v>'h8B,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v>8C</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="2"/>
+        <v>'h8C,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
         <v>141.80000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>8E</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="2"/>
+        <v>'h8E,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
         <v>143.60000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="2"/>
+        <v>'h90,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
         <v>145.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="2"/>
+        <v>'h92,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
         <v>147.19999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="2"/>
+        <v>'h94,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B102" si="2">CONVERT(A67,"C","F")</f>
+        <f t="shared" ref="B67:B102" si="5">CONVERT(A67,"C","F")</f>
         <v>149</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D102" si="6">DEC2HEX(C67)</f>
+        <v>95</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E102" si="7">_xlfn.CONCAT("'h"&amp;D67 &amp; ",")</f>
+        <v>'h95,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
-        <f t="shared" ref="A68:A102" si="3">A67 + 1</f>
+        <f t="shared" ref="A68:A102" si="8">A67 + 1</f>
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>150.80000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="7"/>
+        <v>'h97,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>152.60000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="7"/>
+        <v>'h99,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>154.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70">
+        <f t="shared" ref="C70:C102" si="9">ROUNDUP(B70,0)</f>
+        <v>155</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="6"/>
+        <v>9B</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="7"/>
+        <v>'h9B,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>156.19999999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C71">
+        <f t="shared" si="9"/>
+        <v>157</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="6"/>
+        <v>9D</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="7"/>
+        <v>'h9D,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C72">
+        <f t="shared" si="9"/>
+        <v>158</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="6"/>
+        <v>9E</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="7"/>
+        <v>'h9E,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>159.80000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C73">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="6"/>
+        <v>A0</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="7"/>
+        <v>'hA0,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>161.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C74">
+        <f t="shared" si="9"/>
+        <v>162</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="6"/>
+        <v>A2</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="7"/>
+        <v>'hA2,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>163.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C75">
+        <f t="shared" si="9"/>
+        <v>164</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="6"/>
+        <v>A4</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="7"/>
+        <v>'hA4,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>165.20000000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C76">
+        <f t="shared" si="9"/>
+        <v>166</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="6"/>
+        <v>A6</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="7"/>
+        <v>'hA6,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C77">
+        <f t="shared" si="9"/>
+        <v>167</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="6"/>
+        <v>A7</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="7"/>
+        <v>'hA7,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>168.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C78">
+        <f t="shared" si="9"/>
+        <v>169</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="6"/>
+        <v>A9</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="7"/>
+        <v>'hA9,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>170.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C79">
+        <f t="shared" si="9"/>
+        <v>171</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="6"/>
+        <v>AB</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="7"/>
+        <v>'hAB,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>172.4</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C80">
+        <f t="shared" si="9"/>
+        <v>173</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="6"/>
+        <v>AD</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="7"/>
+        <v>'hAD,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>174.20000000000002</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C81">
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="6"/>
+        <v>AF</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="7"/>
+        <v>'hAF,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <f t="shared" si="9"/>
+        <v>176</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="6"/>
+        <v>B0</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="7"/>
+        <v>'hB0,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>81</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>177.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <f t="shared" si="9"/>
+        <v>178</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="6"/>
+        <v>B2</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="7"/>
+        <v>'hB2,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>179.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C84">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="6"/>
+        <v>B4</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="7"/>
+        <v>'hB4,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>181.4</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C85">
+        <f t="shared" si="9"/>
+        <v>182</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="6"/>
+        <v>B6</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="7"/>
+        <v>'hB6,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>183.20000000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C86">
+        <f t="shared" si="9"/>
+        <v>184</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="6"/>
+        <v>B8</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="7"/>
+        <v>'hB8,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C87">
+        <f t="shared" si="9"/>
+        <v>185</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="6"/>
+        <v>B9</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="7"/>
+        <v>'hB9,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>186.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C88">
+        <f t="shared" si="9"/>
+        <v>187</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="6"/>
+        <v>BB</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="7"/>
+        <v>'hBB,</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>188.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C89">
+        <f t="shared" si="9"/>
+        <v>189</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="6"/>
+        <v>BD</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="7"/>
+        <v>'hBD,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>190.4</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C90">
+        <f t="shared" si="9"/>
+        <v>191</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="6"/>
+        <v>BF</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="7"/>
+        <v>'hBF,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>192.20000000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C91">
+        <f t="shared" si="9"/>
+        <v>193</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="6"/>
+        <v>C1</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="7"/>
+        <v>'hC1,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>194</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C92">
+        <f t="shared" si="9"/>
+        <v>194</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="6"/>
+        <v>C2</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="7"/>
+        <v>'hC2,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>195.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C93">
+        <f t="shared" si="9"/>
+        <v>196</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="6"/>
+        <v>C4</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="7"/>
+        <v>'hC4,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>197.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C94">
+        <f t="shared" si="9"/>
+        <v>198</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="6"/>
+        <v>C6</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="7"/>
+        <v>'hC6,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>199.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C95">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="6"/>
+        <v>C8</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="7"/>
+        <v>'hC8,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>94</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>201.20000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C96">
+        <f t="shared" si="9"/>
+        <v>202</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="6"/>
+        <v>CA</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="7"/>
+        <v>'hCA,</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>203</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C97">
+        <f t="shared" si="9"/>
+        <v>203</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="6"/>
+        <v>CB</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="7"/>
+        <v>'hCB,</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>96</v>
       </c>
       <c r="B98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>204.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C98">
+        <f t="shared" si="9"/>
+        <v>205</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="6"/>
+        <v>CD</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="7"/>
+        <v>'hCD,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>97</v>
       </c>
       <c r="B99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>206.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C99">
+        <f t="shared" si="9"/>
+        <v>207</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="6"/>
+        <v>CF</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="7"/>
+        <v>'hCF,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>98</v>
       </c>
       <c r="B100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>208.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C100">
+        <f t="shared" si="9"/>
+        <v>209</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="6"/>
+        <v>D1</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="7"/>
+        <v>'hD1,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="B101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>210.20000000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C101">
+        <f t="shared" si="9"/>
+        <v>211</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="6"/>
+        <v>D3</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="7"/>
+        <v>'hD3,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="B102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>212</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="9"/>
+        <v>212</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="6"/>
+        <v>D4</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="7"/>
+        <v>'hD4,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD4686D-477C-4871-B20B-F05B6485C1F5}">
+  <dimension ref="A1:J214"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>CONVERT(A2,"C","F")</f>
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <f>ROUNDUP(B2,0)</f>
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT("8'h"&amp;H2&amp;",")</f>
+        <v>8'hZ,</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(I2:I214)</f>
+        <v>8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'hZ,8'h0,8'h1,8'h2,8'h2,8'h3,8'h3,8'h4,8'h4,8'h5,8'h5,8'h6,8'h7,8'h7,8'h8,8'h8,8'h9,8'h9,8'hA,8'hA,8'hB,8'hC,8'hC,8'hD,8'hD,8'hE,8'hE,8'hF,8'hF,8'h10,8'h11,8'h11,8'h12,8'h12,8'h13,8'h13,8'h14,8'h14,8'h15,8'h16,8'h16,8'h17,8'h17,8'h18,8'h18,8'h19,8'h19,8'h1A,8'h1B,8'h1B,8'h1C,8'h1C,8'h1D,8'h1D,8'h1E,8'h1E,8'h1F,8'h20,8'h20,8'h21,8'h21,8'h22,8'h22,8'h23,8'h23,8'h24,8'h25,8'h25,8'h26,8'h26,8'h27,8'h27,8'h28,8'h28,8'h29,8'h2A,8'h2A,8'h2B,8'h2B,8'h2C,8'h2C,8'h2D,8'h2D,8'h2E,8'h2F,8'h2F,8'h30,8'h30,8'h31,8'h31,8'h32,8'h32,8'h33,8'h34,8'h34,8'h35,8'h35,8'h36,8'h36,8'h37,8'h37,8'h38,8'h39,8'h39,8'h3A,8'h3A,8'h3B,8'h3B,8'h3C,8'h3C,8'h3D,8'h3E,8'h3E,8'h3F,8'h3F,8'h40,8'h40,8'h41,8'h41,8'h42,8'h43,8'h43,8'h44,8'h44,8'h45,8'h45,8'h46,8'h46,8'h47,8'h48,8'h48,8'h49,8'h49,8'h4A,8'h4A,8'h4B,8'h4B,8'h4C,8'h4D,8'h4D,8'h4E,8'h4E,8'h4F,8'h4F,8'h50,8'h50,8'h51,8'h52,8'h52,8'h53,8'h53,8'h54,8'h54,8'h55,8'h55,8'h56,8'h57,8'h57,8'h58,8'h58,8'h59,8'h59,8'h5A,8'h5A,8'h5B,8'h5C,8'h5C,8'h5D,8'h5D,8'h5E,8'h5E,8'h5F,8'h5F,8'h60,8'h61,8'h61,8'h62,8'h62,8'h63,8'h63,8'h64,8'h64,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>A2 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">CONVERT(A3,"C","F")</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" si="1">ROUNDUP(B3,0)</f>
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <f>E2+1</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">CONVERT(E3,"F","C")</f>
+        <v>-17.222222222222221</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="3">_xlfn.CONCAT("8'h"&amp;H3&amp;",")</f>
+        <v>8'hZ,</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="4">A3 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>35.6</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="5">E3+1</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>-16.666666666666668</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>37.4</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-16.111111111111111</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-15.555555555555555</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>42.8</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-14.444444444444445</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>44.6</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-13.888888888888889</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>46.4</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-13.333333333333332</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>48.2</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>-12.777777777777777</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-12.222222222222221</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>51.8</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-11.666666666666666</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>53.6</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>-11.111111111111111</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>55.400000000000006</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>-10.555555555555555</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>57.2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>-9.4444444444444446</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>60.8</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>-8.8888888888888893</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>62.6</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>-8.3333333333333339</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>-7.7777777777777777</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>66.2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>-7.2222222222222223</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>-6.6666666666666661</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>69.800000000000011</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>-6.1111111111111107</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>-5.5555555555555554</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>75.2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>-4.4444444444444446</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>-3.8888888888888888</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>78.800000000000011</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>-3.333333333333333</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>-2.7777777777777777</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>82.4</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>-2.2222222222222223</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>84.2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>-1.6666666666666665</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>-1.1111111111111112</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>87.800000000000011</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>-0.55555555555555558</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hZ,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>89.6</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <f>ROUNDUP(F34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" t="str">
+        <f>DEC2HEX(G34)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h0,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>91.4</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" ref="G2:G65" si="6">ROUNDUP(F35,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" ref="H35:H98" si="7">DEC2HEX(G35)</f>
+        <v>1</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h1,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>93.2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h2,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h2,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>96.8</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h3,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>98.600000000000009</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h3,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>100.4</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h4,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>102.2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h4,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h5,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>105.8</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h5,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>107.60000000000001</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h6,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>109.4</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h7,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>111.2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h7,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>7.2222222222222223</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h8,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>114.8</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h8,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>116.60000000000001</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h9,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>118.4</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h9,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>120.2</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>9.4444444444444446</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hA,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hA,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>123.8</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>10.555555555555555</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hB,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>125.60000000000001</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hC,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>127.4</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hC,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>129.19999999999999</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>12.222222222222221</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hD,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>12.777777777777777</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hD,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>132.80000000000001</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="7"/>
+        <v>E</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hE,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>134.60000000000002</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="7"/>
+        <v>E</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hE,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>136.4</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>14.444444444444445</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hF,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>138.19999999999999</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="3"/>
+        <v>8'hF,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h10,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>141.80000000000001</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>16.111111111111111</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h11,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>143.60000000000002</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h11,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>145.4</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h12,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>147.19999999999999</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" ref="G66:G129" si="8">ROUNDUP(F66,0)</f>
+        <v>18</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="3"/>
+        <v>8'h12,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B102" si="9">CONVERT(A67,"C","F")</f>
+        <v>149</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C102" si="10">ROUNDUP(B67,0)</f>
+        <v>149</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="11">CONVERT(E67,"F","C")</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I130" si="12">_xlfn.CONCAT("8'h"&amp;H67&amp;",")</f>
+        <v>8'h13,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <f t="shared" ref="A68:A102" si="13">A67 + 1</f>
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="9"/>
+        <v>150.80000000000001</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="10"/>
+        <v>151</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E131" si="14">E67+1</f>
+        <v>66</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="11"/>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h13,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <f t="shared" si="13"/>
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="9"/>
+        <v>152.60000000000002</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="10"/>
+        <v>153</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="14"/>
+        <v>67</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="11"/>
+        <v>19.444444444444443</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h14,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="9"/>
+        <v>154.4</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="10"/>
+        <v>155</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h14,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="9"/>
+        <v>156.19999999999999</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="10"/>
+        <v>157</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="11"/>
+        <v>20.555555555555554</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h15,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="9"/>
+        <v>158</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="10"/>
+        <v>158</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="11"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h16,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <f t="shared" si="13"/>
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="9"/>
+        <v>159.80000000000001</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="11"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h16,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="9"/>
+        <v>161.6</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="10"/>
+        <v>162</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="11"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h17,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <f t="shared" si="13"/>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="9"/>
+        <v>163.4</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="10"/>
+        <v>164</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="11"/>
+        <v>22.777777777777779</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h17,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <f t="shared" si="13"/>
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="9"/>
+        <v>165.20000000000002</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="10"/>
+        <v>166</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="11"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h18,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="9"/>
+        <v>167</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="10"/>
+        <v>167</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="11"/>
+        <v>23.888888888888889</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h18,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <f t="shared" si="13"/>
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="9"/>
+        <v>168.8</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="10"/>
+        <v>169</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="11"/>
+        <v>24.444444444444443</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h19,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <f t="shared" si="13"/>
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="9"/>
+        <v>170.6</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="10"/>
+        <v>171</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h19,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="9"/>
+        <v>172.4</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="10"/>
+        <v>173</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="14"/>
+        <v>78</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="11"/>
+        <v>25.555555555555554</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="7"/>
+        <v>1A</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h1A,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <f t="shared" si="13"/>
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="9"/>
+        <v>174.20000000000002</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="10"/>
+        <v>175</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="11"/>
+        <v>26.111111111111111</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="7"/>
+        <v>1B</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h1B,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="9"/>
+        <v>176</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="11"/>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="7"/>
+        <v>1B</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h1B,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="9"/>
+        <v>177.8</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="14"/>
+        <v>81</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="11"/>
+        <v>27.222222222222221</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="7"/>
+        <v>1C</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h1C,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="9"/>
+        <v>179.6</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="11"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="7"/>
+        <v>1C</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h1C,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <f t="shared" si="13"/>
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="9"/>
+        <v>181.4</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="10"/>
+        <v>182</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="14"/>
+        <v>83</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="11"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="7"/>
+        <v>1D</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h1D,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <f t="shared" si="13"/>
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="9"/>
+        <v>183.20000000000002</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="10"/>
+        <v>184</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="11"/>
+        <v>28.888888888888889</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="7"/>
+        <v>1D</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h1D,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <f t="shared" si="13"/>
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="9"/>
+        <v>185</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="10"/>
+        <v>185</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="14"/>
+        <v>85</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="11"/>
+        <v>29.444444444444443</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="7"/>
+        <v>1E</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h1E,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <f t="shared" si="13"/>
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="9"/>
+        <v>186.8</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="10"/>
+        <v>187</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="14"/>
+        <v>86</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="7"/>
+        <v>1E</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h1E,</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="9"/>
+        <v>188.6</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="10"/>
+        <v>189</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="14"/>
+        <v>87</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="11"/>
+        <v>30.555555555555554</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="7"/>
+        <v>1F</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h1F,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <f t="shared" si="13"/>
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="9"/>
+        <v>190.4</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="10"/>
+        <v>191</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="11"/>
+        <v>31.111111111111111</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h20,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <f t="shared" si="13"/>
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="9"/>
+        <v>192.20000000000002</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="10"/>
+        <v>193</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="14"/>
+        <v>89</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="11"/>
+        <v>31.666666666666664</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h20,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="9"/>
+        <v>194</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="10"/>
+        <v>194</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="11"/>
+        <v>32.222222222222221</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h21,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <f t="shared" si="13"/>
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="9"/>
+        <v>195.8</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="10"/>
+        <v>196</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="14"/>
+        <v>91</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="11"/>
+        <v>32.777777777777779</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h21,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <f t="shared" si="13"/>
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="9"/>
+        <v>197.6</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="10"/>
+        <v>198</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="14"/>
+        <v>92</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="11"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h22,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <f t="shared" si="13"/>
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="9"/>
+        <v>199.4</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="14"/>
+        <v>93</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="11"/>
+        <v>33.888888888888886</v>
+      </c>
+      <c r="G95" s="3">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h22,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <f t="shared" si="13"/>
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="9"/>
+        <v>201.20000000000002</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="10"/>
+        <v>202</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="14"/>
+        <v>94</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="11"/>
+        <v>34.444444444444443</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h23,</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="9"/>
+        <v>203</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="10"/>
+        <v>203</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="14"/>
+        <v>95</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="G97" s="3">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h23,</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <f t="shared" si="13"/>
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="9"/>
+        <v>204.8</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="10"/>
+        <v>205</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="11"/>
+        <v>35.555555555555557</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h24,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <f t="shared" si="13"/>
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="9"/>
+        <v>206.6</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="10"/>
+        <v>207</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="11"/>
+        <v>36.111111111111107</v>
+      </c>
+      <c r="G99" s="3">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" ref="H99:H162" si="15">DEC2HEX(G99)</f>
+        <v>25</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h25,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <f t="shared" si="13"/>
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="9"/>
+        <v>208.4</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="10"/>
+        <v>209</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="14"/>
+        <v>98</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="11"/>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h25,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <f t="shared" si="13"/>
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="9"/>
+        <v>210.20000000000002</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" si="10"/>
+        <v>211</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="11"/>
+        <v>37.222222222222221</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h26,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="9"/>
+        <v>212</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="10"/>
+        <v>212</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="11"/>
+        <v>37.777777777777779</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h26,</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <f t="shared" si="14"/>
+        <v>101</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="11"/>
+        <v>38.333333333333336</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h27,</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <f t="shared" si="14"/>
+        <v>102</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="11"/>
+        <v>38.888888888888886</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h27,</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <f t="shared" si="14"/>
+        <v>103</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="11"/>
+        <v>39.444444444444443</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h28,</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <f t="shared" si="14"/>
+        <v>104</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h28,</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="11"/>
+        <v>40.555555555555557</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h29,</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <f t="shared" si="14"/>
+        <v>106</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="11"/>
+        <v>41.111111111111107</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="15"/>
+        <v>2A</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h2A,</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <f t="shared" si="14"/>
+        <v>107</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="11"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="15"/>
+        <v>2A</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h2A,</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <f t="shared" si="14"/>
+        <v>108</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="11"/>
+        <v>42.222222222222221</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="15"/>
+        <v>2B</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h2B,</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <f t="shared" si="14"/>
+        <v>109</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="11"/>
+        <v>42.777777777777779</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="15"/>
+        <v>2B</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h2B,</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <f t="shared" si="14"/>
+        <v>110</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="11"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="15"/>
+        <v>2C</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h2C,</v>
+      </c>
+    </row>
+    <row r="113" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <f t="shared" si="14"/>
+        <v>111</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="11"/>
+        <v>43.888888888888886</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="15"/>
+        <v>2C</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h2C,</v>
+      </c>
+    </row>
+    <row r="114" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <f t="shared" si="14"/>
+        <v>112</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="11"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="15"/>
+        <v>2D</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h2D,</v>
+      </c>
+    </row>
+    <row r="115" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <f t="shared" si="14"/>
+        <v>113</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="15"/>
+        <v>2D</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h2D,</v>
+      </c>
+    </row>
+    <row r="116" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <f t="shared" si="14"/>
+        <v>114</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="11"/>
+        <v>45.555555555555557</v>
+      </c>
+      <c r="G116" s="3">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="15"/>
+        <v>2E</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h2E,</v>
+      </c>
+    </row>
+    <row r="117" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <f t="shared" si="14"/>
+        <v>115</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="11"/>
+        <v>46.111111111111107</v>
+      </c>
+      <c r="G117" s="3">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="15"/>
+        <v>2F</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h2F,</v>
+      </c>
+    </row>
+    <row r="118" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <f t="shared" si="14"/>
+        <v>116</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="11"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="G118" s="3">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="15"/>
+        <v>2F</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h2F,</v>
+      </c>
+    </row>
+    <row r="119" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <f t="shared" si="14"/>
+        <v>117</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="11"/>
+        <v>47.222222222222221</v>
+      </c>
+      <c r="G119" s="3">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h30,</v>
+      </c>
+    </row>
+    <row r="120" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <f t="shared" si="14"/>
+        <v>118</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="11"/>
+        <v>47.777777777777779</v>
+      </c>
+      <c r="G120" s="3">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h30,</v>
+      </c>
+    </row>
+    <row r="121" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <f t="shared" si="14"/>
+        <v>119</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="11"/>
+        <v>48.333333333333329</v>
+      </c>
+      <c r="G121" s="3">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h31,</v>
+      </c>
+    </row>
+    <row r="122" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="11"/>
+        <v>48.888888888888886</v>
+      </c>
+      <c r="G122" s="3">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h31,</v>
+      </c>
+    </row>
+    <row r="123" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <f t="shared" si="14"/>
+        <v>121</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="11"/>
+        <v>49.444444444444443</v>
+      </c>
+      <c r="G123" s="3">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h32,</v>
+      </c>
+    </row>
+    <row r="124" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <f t="shared" si="14"/>
+        <v>122</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="G124" s="3">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h32,</v>
+      </c>
+    </row>
+    <row r="125" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <f t="shared" si="14"/>
+        <v>123</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="11"/>
+        <v>50.555555555555557</v>
+      </c>
+      <c r="G125" s="3">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h33,</v>
+      </c>
+    </row>
+    <row r="126" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <f t="shared" si="14"/>
+        <v>124</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="11"/>
+        <v>51.111111111111107</v>
+      </c>
+      <c r="G126" s="3">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h34,</v>
+      </c>
+    </row>
+    <row r="127" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <f t="shared" si="14"/>
+        <v>125</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="11"/>
+        <v>51.666666666666664</v>
+      </c>
+      <c r="G127" s="3">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h34,</v>
+      </c>
+    </row>
+    <row r="128" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <f t="shared" si="14"/>
+        <v>126</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="11"/>
+        <v>52.222222222222221</v>
+      </c>
+      <c r="G128" s="3">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h35,</v>
+      </c>
+    </row>
+    <row r="129" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <f t="shared" si="14"/>
+        <v>127</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="11"/>
+        <v>52.777777777777779</v>
+      </c>
+      <c r="G129" s="3">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h35,</v>
+      </c>
+    </row>
+    <row r="130" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="11"/>
+        <v>53.333333333333329</v>
+      </c>
+      <c r="G130" s="3">
+        <f t="shared" ref="G130:G193" si="16">ROUNDUP(F130,0)</f>
+        <v>54</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="12"/>
+        <v>8'h36,</v>
+      </c>
+    </row>
+    <row r="131" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <f t="shared" si="14"/>
+        <v>129</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="17">CONVERT(E131,"F","C")</f>
+        <v>53.888888888888886</v>
+      </c>
+      <c r="G131" s="3">
+        <f t="shared" si="16"/>
+        <v>54</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" ref="I131:I194" si="18">_xlfn.CONCAT("8'h"&amp;H131&amp;",")</f>
+        <v>8'h36,</v>
+      </c>
+    </row>
+    <row r="132" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <f t="shared" ref="E132:E195" si="19">E131+1</f>
+        <v>130</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="17"/>
+        <v>54.444444444444443</v>
+      </c>
+      <c r="G132" s="3">
+        <f t="shared" si="16"/>
+        <v>55</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h37,</v>
+      </c>
+    </row>
+    <row r="133" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <f t="shared" si="19"/>
+        <v>131</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="G133" s="3">
+        <f t="shared" si="16"/>
+        <v>55</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h37,</v>
+      </c>
+    </row>
+    <row r="134" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E134">
+        <f t="shared" si="19"/>
+        <v>132</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="17"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="G134" s="3">
+        <f t="shared" si="16"/>
+        <v>56</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h38,</v>
+      </c>
+    </row>
+    <row r="135" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E135">
+        <f t="shared" si="19"/>
+        <v>133</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="17"/>
+        <v>56.111111111111107</v>
+      </c>
+      <c r="G135" s="3">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h39,</v>
+      </c>
+    </row>
+    <row r="136" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E136">
+        <f t="shared" si="19"/>
+        <v>134</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="17"/>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="G136" s="3">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h39,</v>
+      </c>
+    </row>
+    <row r="137" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E137">
+        <f t="shared" si="19"/>
+        <v>135</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="17"/>
+        <v>57.222222222222221</v>
+      </c>
+      <c r="G137" s="3">
+        <f t="shared" si="16"/>
+        <v>58</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="15"/>
+        <v>3A</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h3A,</v>
+      </c>
+    </row>
+    <row r="138" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E138">
+        <f t="shared" si="19"/>
+        <v>136</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="17"/>
+        <v>57.777777777777779</v>
+      </c>
+      <c r="G138" s="3">
+        <f t="shared" si="16"/>
+        <v>58</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="15"/>
+        <v>3A</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h3A,</v>
+      </c>
+    </row>
+    <row r="139" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E139">
+        <f t="shared" si="19"/>
+        <v>137</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="17"/>
+        <v>58.333333333333329</v>
+      </c>
+      <c r="G139" s="3">
+        <f t="shared" si="16"/>
+        <v>59</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="15"/>
+        <v>3B</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h3B,</v>
+      </c>
+    </row>
+    <row r="140" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E140">
+        <f t="shared" si="19"/>
+        <v>138</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="17"/>
+        <v>58.888888888888886</v>
+      </c>
+      <c r="G140" s="3">
+        <f t="shared" si="16"/>
+        <v>59</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="15"/>
+        <v>3B</v>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h3B,</v>
+      </c>
+    </row>
+    <row r="141" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E141">
+        <f t="shared" si="19"/>
+        <v>139</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="17"/>
+        <v>59.444444444444443</v>
+      </c>
+      <c r="G141" s="3">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="15"/>
+        <v>3C</v>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h3C,</v>
+      </c>
+    </row>
+    <row r="142" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E142">
+        <f t="shared" si="19"/>
+        <v>140</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="G142" s="3">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="15"/>
+        <v>3C</v>
+      </c>
+      <c r="I142" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h3C,</v>
+      </c>
+    </row>
+    <row r="143" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E143">
+        <f t="shared" si="19"/>
+        <v>141</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="17"/>
+        <v>60.555555555555557</v>
+      </c>
+      <c r="G143" s="3">
+        <f t="shared" si="16"/>
+        <v>61</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="15"/>
+        <v>3D</v>
+      </c>
+      <c r="I143" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h3D,</v>
+      </c>
+    </row>
+    <row r="144" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E144">
+        <f t="shared" si="19"/>
+        <v>142</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="17"/>
+        <v>61.111111111111107</v>
+      </c>
+      <c r="G144" s="3">
+        <f t="shared" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="15"/>
+        <v>3E</v>
+      </c>
+      <c r="I144" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h3E,</v>
+      </c>
+    </row>
+    <row r="145" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E145">
+        <f t="shared" si="19"/>
+        <v>143</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="17"/>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="G145" s="3">
+        <f t="shared" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="15"/>
+        <v>3E</v>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h3E,</v>
+      </c>
+    </row>
+    <row r="146" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E146">
+        <f t="shared" si="19"/>
+        <v>144</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="17"/>
+        <v>62.222222222222221</v>
+      </c>
+      <c r="G146" s="3">
+        <f t="shared" si="16"/>
+        <v>63</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="15"/>
+        <v>3F</v>
+      </c>
+      <c r="I146" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h3F,</v>
+      </c>
+    </row>
+    <row r="147" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E147">
+        <f t="shared" si="19"/>
+        <v>145</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="17"/>
+        <v>62.777777777777779</v>
+      </c>
+      <c r="G147" s="3">
+        <f t="shared" si="16"/>
+        <v>63</v>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" si="15"/>
+        <v>3F</v>
+      </c>
+      <c r="I147" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h3F,</v>
+      </c>
+    </row>
+    <row r="148" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E148">
+        <f t="shared" si="19"/>
+        <v>146</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="17"/>
+        <v>63.333333333333329</v>
+      </c>
+      <c r="G148" s="3">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="I148" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h40,</v>
+      </c>
+    </row>
+    <row r="149" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E149">
+        <f t="shared" si="19"/>
+        <v>147</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="17"/>
+        <v>63.888888888888886</v>
+      </c>
+      <c r="G149" s="3">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="I149" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h40,</v>
+      </c>
+    </row>
+    <row r="150" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E150">
+        <f t="shared" si="19"/>
+        <v>148</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="17"/>
+        <v>64.444444444444443</v>
+      </c>
+      <c r="G150" s="3">
+        <f t="shared" si="16"/>
+        <v>65</v>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" si="15"/>
+        <v>41</v>
+      </c>
+      <c r="I150" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h41,</v>
+      </c>
+    </row>
+    <row r="151" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <f t="shared" si="19"/>
+        <v>149</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="17"/>
+        <v>65</v>
+      </c>
+      <c r="G151" s="3">
+        <f t="shared" si="16"/>
+        <v>65</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="15"/>
+        <v>41</v>
+      </c>
+      <c r="I151" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h41,</v>
+      </c>
+    </row>
+    <row r="152" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E152">
+        <f t="shared" si="19"/>
+        <v>150</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="17"/>
+        <v>65.555555555555557</v>
+      </c>
+      <c r="G152" s="3">
+        <f t="shared" si="16"/>
+        <v>66</v>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="15"/>
+        <v>42</v>
+      </c>
+      <c r="I152" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h42,</v>
+      </c>
+    </row>
+    <row r="153" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E153">
+        <f t="shared" si="19"/>
+        <v>151</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="17"/>
+        <v>66.111111111111114</v>
+      </c>
+      <c r="G153" s="3">
+        <f t="shared" si="16"/>
+        <v>67</v>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="15"/>
+        <v>43</v>
+      </c>
+      <c r="I153" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h43,</v>
+      </c>
+    </row>
+    <row r="154" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E154">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="17"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G154" s="3">
+        <f t="shared" si="16"/>
+        <v>67</v>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" si="15"/>
+        <v>43</v>
+      </c>
+      <c r="I154" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h43,</v>
+      </c>
+    </row>
+    <row r="155" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E155">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="17"/>
+        <v>67.222222222222214</v>
+      </c>
+      <c r="G155" s="3">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
+      <c r="H155" t="str">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+      <c r="I155" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h44,</v>
+      </c>
+    </row>
+    <row r="156" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E156">
+        <f t="shared" si="19"/>
+        <v>154</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="17"/>
+        <v>67.777777777777771</v>
+      </c>
+      <c r="G156" s="3">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+      <c r="I156" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h44,</v>
+      </c>
+    </row>
+    <row r="157" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E157">
+        <f t="shared" si="19"/>
+        <v>155</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="17"/>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="G157" s="3">
+        <f t="shared" si="16"/>
+        <v>69</v>
+      </c>
+      <c r="H157" t="str">
+        <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="I157" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h45,</v>
+      </c>
+    </row>
+    <row r="158" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E158">
+        <f t="shared" si="19"/>
+        <v>156</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="17"/>
+        <v>68.888888888888886</v>
+      </c>
+      <c r="G158" s="3">
+        <f t="shared" si="16"/>
+        <v>69</v>
+      </c>
+      <c r="H158" t="str">
+        <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="I158" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h45,</v>
+      </c>
+    </row>
+    <row r="159" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E159">
+        <f t="shared" si="19"/>
+        <v>157</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="17"/>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="G159" s="3">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="H159" t="str">
+        <f t="shared" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="I159" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h46,</v>
+      </c>
+    </row>
+    <row r="160" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E160">
+        <f t="shared" si="19"/>
+        <v>158</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G160" s="3">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="H160" t="str">
+        <f t="shared" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="I160" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h46,</v>
+      </c>
+    </row>
+    <row r="161" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E161">
+        <f t="shared" si="19"/>
+        <v>159</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="17"/>
+        <v>70.555555555555557</v>
+      </c>
+      <c r="G161" s="3">
+        <f t="shared" si="16"/>
+        <v>71</v>
+      </c>
+      <c r="H161" t="str">
+        <f t="shared" si="15"/>
+        <v>47</v>
+      </c>
+      <c r="I161" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h47,</v>
+      </c>
+    </row>
+    <row r="162" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E162">
+        <f t="shared" si="19"/>
+        <v>160</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="17"/>
+        <v>71.111111111111114</v>
+      </c>
+      <c r="G162" s="3">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="H162" t="str">
+        <f t="shared" si="15"/>
+        <v>48</v>
+      </c>
+      <c r="I162" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h48,</v>
+      </c>
+    </row>
+    <row r="163" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E163">
+        <f t="shared" si="19"/>
+        <v>161</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="17"/>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="G163" s="3">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="H163" t="str">
+        <f t="shared" ref="H163:H214" si="20">DEC2HEX(G163)</f>
+        <v>48</v>
+      </c>
+      <c r="I163" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h48,</v>
+      </c>
+    </row>
+    <row r="164" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E164">
+        <f t="shared" si="19"/>
+        <v>162</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="17"/>
+        <v>72.222222222222214</v>
+      </c>
+      <c r="G164" s="3">
+        <f t="shared" si="16"/>
+        <v>73</v>
+      </c>
+      <c r="H164" t="str">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="I164" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h49,</v>
+      </c>
+    </row>
+    <row r="165" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E165">
+        <f t="shared" si="19"/>
+        <v>163</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="17"/>
+        <v>72.777777777777771</v>
+      </c>
+      <c r="G165" s="3">
+        <f t="shared" si="16"/>
+        <v>73</v>
+      </c>
+      <c r="H165" t="str">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="I165" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h49,</v>
+      </c>
+    </row>
+    <row r="166" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E166">
+        <f t="shared" si="19"/>
+        <v>164</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="17"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G166" s="3">
+        <f t="shared" si="16"/>
+        <v>74</v>
+      </c>
+      <c r="H166" t="str">
+        <f t="shared" si="20"/>
+        <v>4A</v>
+      </c>
+      <c r="I166" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h4A,</v>
+      </c>
+    </row>
+    <row r="167" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E167">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="17"/>
+        <v>73.888888888888886</v>
+      </c>
+      <c r="G167" s="3">
+        <f t="shared" si="16"/>
+        <v>74</v>
+      </c>
+      <c r="H167" t="str">
+        <f t="shared" si="20"/>
+        <v>4A</v>
+      </c>
+      <c r="I167" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h4A,</v>
+      </c>
+    </row>
+    <row r="168" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E168">
+        <f t="shared" si="19"/>
+        <v>166</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="17"/>
+        <v>74.444444444444443</v>
+      </c>
+      <c r="G168" s="3">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="H168" t="str">
+        <f t="shared" si="20"/>
+        <v>4B</v>
+      </c>
+      <c r="I168" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h4B,</v>
+      </c>
+    </row>
+    <row r="169" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E169">
+        <f t="shared" si="19"/>
+        <v>167</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="G169" s="3">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="H169" t="str">
+        <f t="shared" si="20"/>
+        <v>4B</v>
+      </c>
+      <c r="I169" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h4B,</v>
+      </c>
+    </row>
+    <row r="170" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E170">
+        <f t="shared" si="19"/>
+        <v>168</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="17"/>
+        <v>75.555555555555557</v>
+      </c>
+      <c r="G170" s="3">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" si="20"/>
+        <v>4C</v>
+      </c>
+      <c r="I170" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h4C,</v>
+      </c>
+    </row>
+    <row r="171" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E171">
+        <f t="shared" si="19"/>
+        <v>169</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="17"/>
+        <v>76.111111111111114</v>
+      </c>
+      <c r="G171" s="3">
+        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" si="20"/>
+        <v>4D</v>
+      </c>
+      <c r="I171" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h4D,</v>
+      </c>
+    </row>
+    <row r="172" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E172">
+        <f t="shared" si="19"/>
+        <v>170</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="17"/>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="G172" s="3">
+        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="H172" t="str">
+        <f t="shared" si="20"/>
+        <v>4D</v>
+      </c>
+      <c r="I172" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h4D,</v>
+      </c>
+    </row>
+    <row r="173" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E173">
+        <f t="shared" si="19"/>
+        <v>171</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="17"/>
+        <v>77.222222222222214</v>
+      </c>
+      <c r="G173" s="3">
+        <f t="shared" si="16"/>
+        <v>78</v>
+      </c>
+      <c r="H173" t="str">
+        <f t="shared" si="20"/>
+        <v>4E</v>
+      </c>
+      <c r="I173" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h4E,</v>
+      </c>
+    </row>
+    <row r="174" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E174">
+        <f t="shared" si="19"/>
+        <v>172</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="17"/>
+        <v>77.777777777777771</v>
+      </c>
+      <c r="G174" s="3">
+        <f t="shared" si="16"/>
+        <v>78</v>
+      </c>
+      <c r="H174" t="str">
+        <f t="shared" si="20"/>
+        <v>4E</v>
+      </c>
+      <c r="I174" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h4E,</v>
+      </c>
+    </row>
+    <row r="175" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E175">
+        <f t="shared" si="19"/>
+        <v>173</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="17"/>
+        <v>78.333333333333329</v>
+      </c>
+      <c r="G175" s="3">
+        <f t="shared" si="16"/>
+        <v>79</v>
+      </c>
+      <c r="H175" t="str">
+        <f t="shared" si="20"/>
+        <v>4F</v>
+      </c>
+      <c r="I175" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h4F,</v>
+      </c>
+    </row>
+    <row r="176" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E176">
+        <f t="shared" si="19"/>
+        <v>174</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="17"/>
+        <v>78.888888888888886</v>
+      </c>
+      <c r="G176" s="3">
+        <f t="shared" si="16"/>
+        <v>79</v>
+      </c>
+      <c r="H176" t="str">
+        <f t="shared" si="20"/>
+        <v>4F</v>
+      </c>
+      <c r="I176" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h4F,</v>
+      </c>
+    </row>
+    <row r="177" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E177">
+        <f t="shared" si="19"/>
+        <v>175</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="17"/>
+        <v>79.444444444444443</v>
+      </c>
+      <c r="G177" s="3">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="H177" t="str">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+      <c r="I177" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h50,</v>
+      </c>
+    </row>
+    <row r="178" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E178">
+        <f t="shared" si="19"/>
+        <v>176</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="17"/>
+        <v>80</v>
+      </c>
+      <c r="G178" s="3">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="H178" t="str">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+      <c r="I178" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h50,</v>
+      </c>
+    </row>
+    <row r="179" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E179">
+        <f t="shared" si="19"/>
+        <v>177</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="17"/>
+        <v>80.555555555555557</v>
+      </c>
+      <c r="G179" s="3">
+        <f t="shared" si="16"/>
+        <v>81</v>
+      </c>
+      <c r="H179" t="str">
+        <f t="shared" si="20"/>
+        <v>51</v>
+      </c>
+      <c r="I179" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h51,</v>
+      </c>
+    </row>
+    <row r="180" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E180">
+        <f t="shared" si="19"/>
+        <v>178</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="17"/>
+        <v>81.111111111111114</v>
+      </c>
+      <c r="G180" s="3">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="H180" t="str">
+        <f t="shared" si="20"/>
+        <v>52</v>
+      </c>
+      <c r="I180" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h52,</v>
+      </c>
+    </row>
+    <row r="181" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E181">
+        <f t="shared" si="19"/>
+        <v>179</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="17"/>
+        <v>81.666666666666671</v>
+      </c>
+      <c r="G181" s="3">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="H181" t="str">
+        <f t="shared" si="20"/>
+        <v>52</v>
+      </c>
+      <c r="I181" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h52,</v>
+      </c>
+    </row>
+    <row r="182" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E182">
+        <f t="shared" si="19"/>
+        <v>180</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="17"/>
+        <v>82.222222222222214</v>
+      </c>
+      <c r="G182" s="3">
+        <f t="shared" si="16"/>
+        <v>83</v>
+      </c>
+      <c r="H182" t="str">
+        <f t="shared" si="20"/>
+        <v>53</v>
+      </c>
+      <c r="I182" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h53,</v>
+      </c>
+    </row>
+    <row r="183" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E183">
+        <f t="shared" si="19"/>
+        <v>181</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="17"/>
+        <v>82.777777777777771</v>
+      </c>
+      <c r="G183" s="3">
+        <f t="shared" si="16"/>
+        <v>83</v>
+      </c>
+      <c r="H183" t="str">
+        <f t="shared" si="20"/>
+        <v>53</v>
+      </c>
+      <c r="I183" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h53,</v>
+      </c>
+    </row>
+    <row r="184" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E184">
+        <f t="shared" si="19"/>
+        <v>182</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="17"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G184" s="3">
+        <f t="shared" si="16"/>
+        <v>84</v>
+      </c>
+      <c r="H184" t="str">
+        <f t="shared" si="20"/>
+        <v>54</v>
+      </c>
+      <c r="I184" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h54,</v>
+      </c>
+    </row>
+    <row r="185" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E185">
+        <f t="shared" si="19"/>
+        <v>183</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="17"/>
+        <v>83.888888888888886</v>
+      </c>
+      <c r="G185" s="3">
+        <f t="shared" si="16"/>
+        <v>84</v>
+      </c>
+      <c r="H185" t="str">
+        <f t="shared" si="20"/>
+        <v>54</v>
+      </c>
+      <c r="I185" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h54,</v>
+      </c>
+    </row>
+    <row r="186" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E186">
+        <f t="shared" si="19"/>
+        <v>184</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="17"/>
+        <v>84.444444444444443</v>
+      </c>
+      <c r="G186" s="3">
+        <f t="shared" si="16"/>
+        <v>85</v>
+      </c>
+      <c r="H186" t="str">
+        <f t="shared" si="20"/>
+        <v>55</v>
+      </c>
+      <c r="I186" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h55,</v>
+      </c>
+    </row>
+    <row r="187" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E187">
+        <f t="shared" si="19"/>
+        <v>185</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="17"/>
+        <v>85</v>
+      </c>
+      <c r="G187" s="3">
+        <f t="shared" si="16"/>
+        <v>85</v>
+      </c>
+      <c r="H187" t="str">
+        <f t="shared" si="20"/>
+        <v>55</v>
+      </c>
+      <c r="I187" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h55,</v>
+      </c>
+    </row>
+    <row r="188" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E188">
+        <f t="shared" si="19"/>
+        <v>186</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="17"/>
+        <v>85.555555555555557</v>
+      </c>
+      <c r="G188" s="3">
+        <f t="shared" si="16"/>
+        <v>86</v>
+      </c>
+      <c r="H188" t="str">
+        <f t="shared" si="20"/>
+        <v>56</v>
+      </c>
+      <c r="I188" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h56,</v>
+      </c>
+    </row>
+    <row r="189" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E189">
+        <f t="shared" si="19"/>
+        <v>187</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="17"/>
+        <v>86.111111111111114</v>
+      </c>
+      <c r="G189" s="3">
+        <f t="shared" si="16"/>
+        <v>87</v>
+      </c>
+      <c r="H189" t="str">
+        <f t="shared" si="20"/>
+        <v>57</v>
+      </c>
+      <c r="I189" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h57,</v>
+      </c>
+    </row>
+    <row r="190" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E190">
+        <f t="shared" si="19"/>
+        <v>188</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="17"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="G190" s="3">
+        <f t="shared" si="16"/>
+        <v>87</v>
+      </c>
+      <c r="H190" t="str">
+        <f t="shared" si="20"/>
+        <v>57</v>
+      </c>
+      <c r="I190" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h57,</v>
+      </c>
+    </row>
+    <row r="191" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E191">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="17"/>
+        <v>87.222222222222214</v>
+      </c>
+      <c r="G191" s="3">
+        <f t="shared" si="16"/>
+        <v>88</v>
+      </c>
+      <c r="H191" t="str">
+        <f t="shared" si="20"/>
+        <v>58</v>
+      </c>
+      <c r="I191" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h58,</v>
+      </c>
+    </row>
+    <row r="192" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E192">
+        <f t="shared" si="19"/>
+        <v>190</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="17"/>
+        <v>87.777777777777771</v>
+      </c>
+      <c r="G192" s="3">
+        <f t="shared" si="16"/>
+        <v>88</v>
+      </c>
+      <c r="H192" t="str">
+        <f t="shared" si="20"/>
+        <v>58</v>
+      </c>
+      <c r="I192" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h58,</v>
+      </c>
+    </row>
+    <row r="193" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E193">
+        <f t="shared" si="19"/>
+        <v>191</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="17"/>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="G193" s="3">
+        <f t="shared" si="16"/>
+        <v>89</v>
+      </c>
+      <c r="H193" t="str">
+        <f t="shared" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="I193" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h59,</v>
+      </c>
+    </row>
+    <row r="194" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E194">
+        <f t="shared" si="19"/>
+        <v>192</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="17"/>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="G194" s="3">
+        <f t="shared" ref="G194:G214" si="21">ROUNDUP(F194,0)</f>
+        <v>89</v>
+      </c>
+      <c r="H194" t="str">
+        <f t="shared" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="I194" t="str">
+        <f t="shared" si="18"/>
+        <v>8'h59,</v>
+      </c>
+    </row>
+    <row r="195" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E195">
+        <f t="shared" si="19"/>
+        <v>193</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F214" si="22">CONVERT(E195,"F","C")</f>
+        <v>89.444444444444443</v>
+      </c>
+      <c r="G195" s="3">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+      <c r="H195" t="str">
+        <f t="shared" si="20"/>
+        <v>5A</v>
+      </c>
+      <c r="I195" t="str">
+        <f t="shared" ref="I195:I214" si="23">_xlfn.CONCAT("8'h"&amp;H195&amp;",")</f>
+        <v>8'h5A,</v>
+      </c>
+    </row>
+    <row r="196" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E196">
+        <f t="shared" ref="E196:E218" si="24">E195+1</f>
+        <v>194</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
+      <c r="G196" s="3">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+      <c r="H196" t="str">
+        <f t="shared" si="20"/>
+        <v>5A</v>
+      </c>
+      <c r="I196" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h5A,</v>
+      </c>
+    </row>
+    <row r="197" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E197">
+        <f t="shared" si="24"/>
+        <v>195</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="22"/>
+        <v>90.555555555555557</v>
+      </c>
+      <c r="G197" s="3">
+        <f t="shared" si="21"/>
+        <v>91</v>
+      </c>
+      <c r="H197" t="str">
+        <f t="shared" si="20"/>
+        <v>5B</v>
+      </c>
+      <c r="I197" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h5B,</v>
+      </c>
+    </row>
+    <row r="198" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E198">
+        <f t="shared" si="24"/>
+        <v>196</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="22"/>
+        <v>91.111111111111114</v>
+      </c>
+      <c r="G198" s="3">
+        <f t="shared" si="21"/>
+        <v>92</v>
+      </c>
+      <c r="H198" t="str">
+        <f t="shared" si="20"/>
+        <v>5C</v>
+      </c>
+      <c r="I198" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h5C,</v>
+      </c>
+    </row>
+    <row r="199" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E199">
+        <f t="shared" si="24"/>
+        <v>197</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="22"/>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="G199" s="3">
+        <f t="shared" si="21"/>
+        <v>92</v>
+      </c>
+      <c r="H199" t="str">
+        <f t="shared" si="20"/>
+        <v>5C</v>
+      </c>
+      <c r="I199" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h5C,</v>
+      </c>
+    </row>
+    <row r="200" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E200">
+        <f t="shared" si="24"/>
+        <v>198</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="22"/>
+        <v>92.222222222222214</v>
+      </c>
+      <c r="G200" s="3">
+        <f t="shared" si="21"/>
+        <v>93</v>
+      </c>
+      <c r="H200" t="str">
+        <f t="shared" si="20"/>
+        <v>5D</v>
+      </c>
+      <c r="I200" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h5D,</v>
+      </c>
+    </row>
+    <row r="201" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E201">
+        <f t="shared" si="24"/>
+        <v>199</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="22"/>
+        <v>92.777777777777771</v>
+      </c>
+      <c r="G201" s="3">
+        <f t="shared" si="21"/>
+        <v>93</v>
+      </c>
+      <c r="H201" t="str">
+        <f t="shared" si="20"/>
+        <v>5D</v>
+      </c>
+      <c r="I201" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h5D,</v>
+      </c>
+    </row>
+    <row r="202" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E202">
+        <f t="shared" si="24"/>
+        <v>200</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="22"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="G202" s="3">
+        <f t="shared" si="21"/>
+        <v>94</v>
+      </c>
+      <c r="H202" t="str">
+        <f t="shared" si="20"/>
+        <v>5E</v>
+      </c>
+      <c r="I202" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h5E,</v>
+      </c>
+    </row>
+    <row r="203" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E203">
+        <f t="shared" si="24"/>
+        <v>201</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="22"/>
+        <v>93.888888888888886</v>
+      </c>
+      <c r="G203" s="3">
+        <f t="shared" si="21"/>
+        <v>94</v>
+      </c>
+      <c r="H203" t="str">
+        <f t="shared" si="20"/>
+        <v>5E</v>
+      </c>
+      <c r="I203" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h5E,</v>
+      </c>
+    </row>
+    <row r="204" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E204">
+        <f t="shared" si="24"/>
+        <v>202</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="22"/>
+        <v>94.444444444444443</v>
+      </c>
+      <c r="G204" s="3">
+        <f t="shared" si="21"/>
+        <v>95</v>
+      </c>
+      <c r="H204" t="str">
+        <f t="shared" si="20"/>
+        <v>5F</v>
+      </c>
+      <c r="I204" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h5F,</v>
+      </c>
+    </row>
+    <row r="205" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E205">
+        <f t="shared" si="24"/>
+        <v>203</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="22"/>
+        <v>95</v>
+      </c>
+      <c r="G205" s="3">
+        <f t="shared" si="21"/>
+        <v>95</v>
+      </c>
+      <c r="H205" t="str">
+        <f t="shared" si="20"/>
+        <v>5F</v>
+      </c>
+      <c r="I205" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h5F,</v>
+      </c>
+    </row>
+    <row r="206" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E206">
+        <f t="shared" si="24"/>
+        <v>204</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="22"/>
+        <v>95.555555555555557</v>
+      </c>
+      <c r="G206" s="3">
+        <f t="shared" si="21"/>
+        <v>96</v>
+      </c>
+      <c r="H206" t="str">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+      <c r="I206" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h60,</v>
+      </c>
+    </row>
+    <row r="207" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E207">
+        <f t="shared" si="24"/>
+        <v>205</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="22"/>
+        <v>96.111111111111114</v>
+      </c>
+      <c r="G207" s="3">
+        <f t="shared" si="21"/>
+        <v>97</v>
+      </c>
+      <c r="H207" t="str">
+        <f t="shared" si="20"/>
+        <v>61</v>
+      </c>
+      <c r="I207" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h61,</v>
+      </c>
+    </row>
+    <row r="208" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E208">
+        <f t="shared" si="24"/>
+        <v>206</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="22"/>
+        <v>96.666666666666657</v>
+      </c>
+      <c r="G208" s="3">
+        <f t="shared" si="21"/>
+        <v>97</v>
+      </c>
+      <c r="H208" t="str">
+        <f t="shared" si="20"/>
+        <v>61</v>
+      </c>
+      <c r="I208" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h61,</v>
+      </c>
+    </row>
+    <row r="209" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E209">
+        <f t="shared" si="24"/>
+        <v>207</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="22"/>
+        <v>97.222222222222214</v>
+      </c>
+      <c r="G209" s="3">
+        <f t="shared" si="21"/>
+        <v>98</v>
+      </c>
+      <c r="H209" t="str">
+        <f t="shared" si="20"/>
+        <v>62</v>
+      </c>
+      <c r="I209" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h62,</v>
+      </c>
+    </row>
+    <row r="210" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E210">
+        <f t="shared" si="24"/>
+        <v>208</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="22"/>
+        <v>97.777777777777771</v>
+      </c>
+      <c r="G210" s="3">
+        <f t="shared" si="21"/>
+        <v>98</v>
+      </c>
+      <c r="H210" t="str">
+        <f t="shared" si="20"/>
+        <v>62</v>
+      </c>
+      <c r="I210" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h62,</v>
+      </c>
+    </row>
+    <row r="211" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E211">
+        <f t="shared" si="24"/>
+        <v>209</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="22"/>
+        <v>98.333333333333329</v>
+      </c>
+      <c r="G211" s="3">
+        <f t="shared" si="21"/>
+        <v>99</v>
+      </c>
+      <c r="H211" t="str">
+        <f t="shared" si="20"/>
+        <v>63</v>
+      </c>
+      <c r="I211" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h63,</v>
+      </c>
+    </row>
+    <row r="212" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E212">
+        <f t="shared" si="24"/>
+        <v>210</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="22"/>
+        <v>98.888888888888886</v>
+      </c>
+      <c r="G212" s="3">
+        <f t="shared" si="21"/>
+        <v>99</v>
+      </c>
+      <c r="H212" t="str">
+        <f t="shared" si="20"/>
+        <v>63</v>
+      </c>
+      <c r="I212" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h63,</v>
+      </c>
+    </row>
+    <row r="213" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E213">
+        <f t="shared" si="24"/>
+        <v>211</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="22"/>
+        <v>99.444444444444443</v>
+      </c>
+      <c r="G213" s="3">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="H213" t="str">
+        <f t="shared" si="20"/>
+        <v>64</v>
+      </c>
+      <c r="I213" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h64,</v>
+      </c>
+    </row>
+    <row r="214" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E214">
+        <f t="shared" si="24"/>
+        <v>212</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="G214" s="3">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="H214" t="str">
+        <f t="shared" si="20"/>
+        <v>64</v>
+      </c>
+      <c r="I214" t="str">
+        <f t="shared" si="23"/>
+        <v>8'h64,</v>
       </c>
     </row>
   </sheetData>
